--- a/docs/TourPlanner_Checklist.xlsx
+++ b/docs/TourPlanner_Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\repos\TourPlanner\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B1558F-67B0-4E84-820F-B3DDBF6827C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D7B695-42C5-48B8-BA37-15080A9AEDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,12 +301,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDADBDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,7 +331,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -672,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1172,7 +1165,9 @@
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
@@ -1275,7 +1270,7 @@
       </c>
       <c r="B78" s="2">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B76),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2">
         <f>SUM(C27:C76)</f>
@@ -1289,6 +1284,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>